--- a/public/static/template/import_baby_zh.xlsx
+++ b/public/static/template/import_baby_zh.xlsx
@@ -53,7 +53,7 @@
     <t>喂养方式</t>
   </si>
   <si>
-    <t>所在地区</t>
+    <t>所在区域</t>
   </si>
   <si>
     <t>详细地址</t>

--- a/public/static/template/import_baby_zh.xlsx
+++ b/public/static/template/import_baby_zh.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D33A63-41C6-CA41-BCCC-BEA0492F1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="16800" yWindow="3800" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baby Roster" sheetId="1" r:id="rId4"/>
+    <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>宝宝</t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue (Headings)"/>
@@ -122,10 +132,6 @@
   </si>
   <si>
     <t>1.必填
-2.校验：2-10个汉字</t>
-  </si>
-  <si>
-    <t>1.必填
 2.选项：男/女/未知</t>
   </si>
   <si>
@@ -159,59 +165,59 @@
   </si>
   <si>
     <t>1. 必填
-2. 主看护人姓名:2-10个汉字</t>
+2. 亲属关系选项:爸爸/妈妈/爷爷/外公/奶奶/外婆/其他</t>
+  </si>
+  <si>
+    <t>主看护人微信</t>
+  </si>
+  <si>
+    <t>1.必填
+2.校验：1-50个字符，不包含特殊字符</t>
   </si>
   <si>
     <t>1. 必填
-2. 亲属关系选项:爸爸/妈妈/爷爷/外公/奶奶/外婆/其他</t>
+2. 主看护人姓名:1-50个字符</t>
   </si>
   <si>
     <t>1. 必填
-2. 主看护人电话:11位手机号码</t>
-  </si>
-  <si>
-    <t>主看护人微信</t>
+2. 主看护人电话: 5-20数字号码</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue (Headings)"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,55 +265,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,25 +316,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffebabb5"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEBABB5"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -537,7 +596,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -555,7 +614,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -584,7 +643,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +668,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -634,7 +693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -709,7 +768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +818,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +843,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,9 +856,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -816,7 +881,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -834,7 +899,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +924,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +949,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,7 +974,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -934,7 +999,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1024,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1049,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,7 +1074,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1099,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1124,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,9 +1137,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1088,7 +1159,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1106,7 +1177,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1206,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1231,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1256,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1281,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1306,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1331,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1356,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1381,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +1406,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,188 +1419,198 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6719" style="1" customWidth="1"/>
-    <col min="6" max="7" width="22.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6719" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="19.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.3516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.3516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.8516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="22.8516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.3516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="22.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.8516" style="1" customWidth="1"/>
-    <col min="28" max="28" width="23.6719" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.6719" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:29" ht="27.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="5">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="6">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="7">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="4">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="4">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="4">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="7">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="6">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="6">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="6">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="6">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="6">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="6">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="6">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="6">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="6">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="6">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="6">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="6">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="6"/>
     </row>
-    <row r="2" ht="88" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" spans="1:29" ht="88" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="G2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s" s="9">
+      <c r="H2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s" s="9">
+      <c r="I2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" t="s" s="9">
+      <c r="M2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s" s="8">
+      <c r="O2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="N2" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s" s="9">
-        <v>42</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -1545,7 +1626,7 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
     </row>
-    <row r="3" ht="35" customHeight="1">
+    <row r="3" spans="1:29" ht="35" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -1576,7 +1657,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:29" ht="16" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1607,7 +1688,7 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:29" ht="16" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1638,7 +1719,7 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:29" ht="16" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1669,7 +1750,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:29" ht="16" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1700,7 +1781,7 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:29" ht="16" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1731,7 +1812,7 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:29" ht="16" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1762,7 +1843,7 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:29" ht="16" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1793,7 +1874,7 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:29" ht="16" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1824,7 +1905,7 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:29" ht="16" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1855,7 +1936,7 @@
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:29" ht="16" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1886,7 +1967,7 @@
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:29" ht="16" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1917,7 +1998,7 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:29" ht="16" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1948,7 +2029,7 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:29" ht="16" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1979,7 +2060,7 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:29" ht="16" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2010,7 +2091,7 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:29" ht="16" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2041,7 +2122,7 @@
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:29" ht="16" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2072,7 +2153,7 @@
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:29" ht="16" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2103,7 +2184,7 @@
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:29" ht="16" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2134,7 +2215,7 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:29" ht="16" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2165,7 +2246,7 @@
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:29" ht="16" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2196,7 +2277,7 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:29" ht="16" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2227,7 +2308,7 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:29" ht="16" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2258,7 +2339,7 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:29" ht="16" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2289,7 +2370,7 @@
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:29" ht="16" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2320,7 +2401,7 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:29" ht="16" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2351,7 +2432,7 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:29" ht="16" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2382,7 +2463,7 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:29" ht="16" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2413,7 +2494,7 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:29" ht="16" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2444,7 +2525,7 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:29" ht="16" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2475,7 +2556,7 @@
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:29" ht="16" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2506,7 +2587,7 @@
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:29" ht="16" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2537,7 +2618,7 @@
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:29" ht="16" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2568,7 +2649,7 @@
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:29" ht="16" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2599,7 +2680,7 @@
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:29" ht="16" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2630,7 +2711,7 @@
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:29" ht="16" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2661,7 +2742,7 @@
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:29" ht="16" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2692,7 +2773,7 @@
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:29" ht="16" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2723,7 +2804,7 @@
       <c r="AB40" s="12"/>
       <c r="AC40" s="12"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:29" ht="16" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2754,7 +2835,7 @@
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:29" ht="16" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2785,7 +2866,7 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:29" ht="16" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2816,7 +2897,7 @@
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:29" ht="16" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2847,7 +2928,7 @@
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:29" ht="16" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2878,7 +2959,7 @@
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:29" ht="16" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2909,7 +2990,7 @@
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:29" ht="16" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2940,7 +3021,7 @@
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:29" ht="16" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2971,7 +3052,7 @@
       <c r="AB48" s="12"/>
       <c r="AC48" s="12"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:29" ht="16" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3002,7 +3083,7 @@
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:29" ht="16" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -3033,7 +3114,7 @@
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:29" ht="16" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3064,7 +3145,7 @@
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:29" ht="16" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3095,7 +3176,7 @@
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:29" ht="16" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3126,7 +3207,7 @@
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:29" ht="16" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -3157,7 +3238,7 @@
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:29" ht="16" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3188,7 +3269,7 @@
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:29" ht="16" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3219,7 +3300,7 @@
       <c r="AB56" s="12"/>
       <c r="AC56" s="12"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:29" ht="16" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3250,7 +3331,7 @@
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:29" ht="16" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3281,7 +3362,7 @@
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:29" ht="16" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3312,7 +3393,7 @@
       <c r="AB59" s="12"/>
       <c r="AC59" s="12"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:29" ht="16" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3343,7 +3424,7 @@
       <c r="AB60" s="12"/>
       <c r="AC60" s="12"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:29" ht="16" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -3374,7 +3455,7 @@
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:29" ht="16" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3405,7 +3486,7 @@
       <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:29" ht="16" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3436,7 +3517,7 @@
       <c r="AB63" s="12"/>
       <c r="AC63" s="12"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
+    <row r="64" spans="1:29" ht="16" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3467,7 +3548,7 @@
       <c r="AB64" s="12"/>
       <c r="AC64" s="12"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
+    <row r="65" spans="1:29" ht="16" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3498,7 +3579,7 @@
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
+    <row r="66" spans="1:29" ht="16" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3529,7 +3610,7 @@
       <c r="AB66" s="12"/>
       <c r="AC66" s="12"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
+    <row r="67" spans="1:29" ht="16" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3560,7 +3641,7 @@
       <c r="AB67" s="12"/>
       <c r="AC67" s="12"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
+    <row r="68" spans="1:29" ht="16" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3591,7 +3672,7 @@
       <c r="AB68" s="12"/>
       <c r="AC68" s="12"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" spans="1:29" ht="16" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3622,7 +3703,7 @@
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
+    <row r="70" spans="1:29" ht="16" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3653,7 +3734,7 @@
       <c r="AB70" s="12"/>
       <c r="AC70" s="12"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
+    <row r="71" spans="1:29" ht="16" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3684,7 +3765,7 @@
       <c r="AB71" s="12"/>
       <c r="AC71" s="12"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" spans="1:29" ht="16" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3715,7 +3796,7 @@
       <c r="AB72" s="12"/>
       <c r="AC72" s="12"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
+    <row r="73" spans="1:29" ht="16" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3746,7 +3827,7 @@
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" spans="1:29" ht="16" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3777,7 +3858,7 @@
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
+    <row r="75" spans="1:29" ht="16" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3808,7 +3889,7 @@
       <c r="AB75" s="12"/>
       <c r="AC75" s="12"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
+    <row r="76" spans="1:29" ht="16" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3839,7 +3920,7 @@
       <c r="AB76" s="12"/>
       <c r="AC76" s="12"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
+    <row r="77" spans="1:29" ht="16" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3870,7 +3951,7 @@
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
     </row>
-    <row r="78" ht="16" customHeight="1">
+    <row r="78" spans="1:29" ht="16" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3901,7 +3982,7 @@
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
+    <row r="79" spans="1:29" ht="16" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3932,7 +4013,7 @@
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
     </row>
-    <row r="80" ht="16" customHeight="1">
+    <row r="80" spans="1:29" ht="16" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3963,7 +4044,7 @@
       <c r="AB80" s="12"/>
       <c r="AC80" s="12"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
+    <row r="81" spans="1:29" ht="16" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3994,7 +4075,7 @@
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
     </row>
-    <row r="82" ht="16" customHeight="1">
+    <row r="82" spans="1:29" ht="16" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4025,7 +4106,7 @@
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
+    <row r="83" spans="1:29" ht="16" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4056,7 +4137,7 @@
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
     </row>
-    <row r="84" ht="16" customHeight="1">
+    <row r="84" spans="1:29" ht="16" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4087,7 +4168,7 @@
       <c r="AB84" s="12"/>
       <c r="AC84" s="12"/>
     </row>
-    <row r="85" ht="16" customHeight="1">
+    <row r="85" spans="1:29" ht="16" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4118,7 +4199,7 @@
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
     </row>
-    <row r="86" ht="16" customHeight="1">
+    <row r="86" spans="1:29" ht="16" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4149,7 +4230,7 @@
       <c r="AB86" s="12"/>
       <c r="AC86" s="12"/>
     </row>
-    <row r="87" ht="16" customHeight="1">
+    <row r="87" spans="1:29" ht="16" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4180,7 +4261,7 @@
       <c r="AB87" s="12"/>
       <c r="AC87" s="12"/>
     </row>
-    <row r="88" ht="16" customHeight="1">
+    <row r="88" spans="1:29" ht="16" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4211,7 +4292,7 @@
       <c r="AB88" s="12"/>
       <c r="AC88" s="12"/>
     </row>
-    <row r="89" ht="16" customHeight="1">
+    <row r="89" spans="1:29" ht="16" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4242,7 +4323,7 @@
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
     </row>
-    <row r="90" ht="16" customHeight="1">
+    <row r="90" spans="1:29" ht="16" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4273,7 +4354,7 @@
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
     </row>
-    <row r="91" ht="16" customHeight="1">
+    <row r="91" spans="1:29" ht="16" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4304,7 +4385,7 @@
       <c r="AB91" s="12"/>
       <c r="AC91" s="12"/>
     </row>
-    <row r="92" ht="16" customHeight="1">
+    <row r="92" spans="1:29" ht="16" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4335,7 +4416,7 @@
       <c r="AB92" s="12"/>
       <c r="AC92" s="12"/>
     </row>
-    <row r="93" ht="16" customHeight="1">
+    <row r="93" spans="1:29" ht="16" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4366,7 +4447,7 @@
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
     </row>
-    <row r="94" ht="16" customHeight="1">
+    <row r="94" spans="1:29" ht="16" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4397,7 +4478,7 @@
       <c r="AB94" s="12"/>
       <c r="AC94" s="12"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
+    <row r="95" spans="1:29" ht="16" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4428,7 +4509,7 @@
       <c r="AB95" s="12"/>
       <c r="AC95" s="12"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
+    <row r="96" spans="1:29" ht="16" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4459,7 +4540,7 @@
       <c r="AB96" s="12"/>
       <c r="AC96" s="12"/>
     </row>
-    <row r="97" ht="16" customHeight="1">
+    <row r="97" spans="1:29" ht="16" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4490,7 +4571,7 @@
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
     </row>
-    <row r="98" ht="16" customHeight="1">
+    <row r="98" spans="1:29" ht="16" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4521,7 +4602,7 @@
       <c r="AB98" s="12"/>
       <c r="AC98" s="12"/>
     </row>
-    <row r="99" ht="16" customHeight="1">
+    <row r="99" spans="1:29" ht="16" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4552,7 +4633,7 @@
       <c r="AB99" s="12"/>
       <c r="AC99" s="12"/>
     </row>
-    <row r="100" ht="16" customHeight="1">
+    <row r="100" spans="1:29" ht="16" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4583,7 +4664,7 @@
       <c r="AB100" s="12"/>
       <c r="AC100" s="12"/>
     </row>
-    <row r="101" ht="16" customHeight="1">
+    <row r="101" spans="1:29" ht="16" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4614,7 +4695,7 @@
       <c r="AB101" s="12"/>
       <c r="AC101" s="12"/>
     </row>
-    <row r="102" ht="16" customHeight="1">
+    <row r="102" spans="1:29" ht="16" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4645,7 +4726,7 @@
       <c r="AB102" s="12"/>
       <c r="AC102" s="12"/>
     </row>
-    <row r="103" ht="16" customHeight="1">
+    <row r="103" spans="1:29" ht="16" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4676,7 +4757,7 @@
       <c r="AB103" s="12"/>
       <c r="AC103" s="12"/>
     </row>
-    <row r="104" ht="16" customHeight="1">
+    <row r="104" spans="1:29" ht="16" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4707,7 +4788,7 @@
       <c r="AB104" s="12"/>
       <c r="AC104" s="12"/>
     </row>
-    <row r="105" ht="16" customHeight="1">
+    <row r="105" spans="1:29" ht="16" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4738,7 +4819,7 @@
       <c r="AB105" s="12"/>
       <c r="AC105" s="12"/>
     </row>
-    <row r="106" ht="16" customHeight="1">
+    <row r="106" spans="1:29" ht="16" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4769,7 +4850,7 @@
       <c r="AB106" s="12"/>
       <c r="AC106" s="12"/>
     </row>
-    <row r="107" ht="16" customHeight="1">
+    <row r="107" spans="1:29" ht="16" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4800,7 +4881,7 @@
       <c r="AB107" s="12"/>
       <c r="AC107" s="12"/>
     </row>
-    <row r="108" ht="16" customHeight="1">
+    <row r="108" spans="1:29" ht="16" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4831,7 +4912,7 @@
       <c r="AB108" s="12"/>
       <c r="AC108" s="12"/>
     </row>
-    <row r="109" ht="16" customHeight="1">
+    <row r="109" spans="1:29" ht="16" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4862,7 +4943,7 @@
       <c r="AB109" s="12"/>
       <c r="AC109" s="12"/>
     </row>
-    <row r="110" ht="16" customHeight="1">
+    <row r="110" spans="1:29" ht="16" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4893,7 +4974,7 @@
       <c r="AB110" s="12"/>
       <c r="AC110" s="12"/>
     </row>
-    <row r="111" ht="16" customHeight="1">
+    <row r="111" spans="1:29" ht="16" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4924,7 +5005,7 @@
       <c r="AB111" s="12"/>
       <c r="AC111" s="12"/>
     </row>
-    <row r="112" ht="16" customHeight="1">
+    <row r="112" spans="1:29" ht="16" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4955,7 +5036,7 @@
       <c r="AB112" s="12"/>
       <c r="AC112" s="12"/>
     </row>
-    <row r="113" ht="16" customHeight="1">
+    <row r="113" spans="1:29" ht="16" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4986,7 +5067,7 @@
       <c r="AB113" s="12"/>
       <c r="AC113" s="12"/>
     </row>
-    <row r="114" ht="16" customHeight="1">
+    <row r="114" spans="1:29" ht="16" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -5017,7 +5098,7 @@
       <c r="AB114" s="12"/>
       <c r="AC114" s="12"/>
     </row>
-    <row r="115" ht="16" customHeight="1">
+    <row r="115" spans="1:29" ht="16" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -5048,7 +5129,7 @@
       <c r="AB115" s="12"/>
       <c r="AC115" s="12"/>
     </row>
-    <row r="116" ht="16" customHeight="1">
+    <row r="116" spans="1:29" ht="16" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -5079,7 +5160,7 @@
       <c r="AB116" s="12"/>
       <c r="AC116" s="12"/>
     </row>
-    <row r="117" ht="16" customHeight="1">
+    <row r="117" spans="1:29" ht="16" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -5110,7 +5191,7 @@
       <c r="AB117" s="12"/>
       <c r="AC117" s="12"/>
     </row>
-    <row r="118" ht="16" customHeight="1">
+    <row r="118" spans="1:29" ht="16" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -5141,7 +5222,7 @@
       <c r="AB118" s="12"/>
       <c r="AC118" s="12"/>
     </row>
-    <row r="119" ht="16" customHeight="1">
+    <row r="119" spans="1:29" ht="16" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5172,7 +5253,7 @@
       <c r="AB119" s="12"/>
       <c r="AC119" s="12"/>
     </row>
-    <row r="120" ht="16" customHeight="1">
+    <row r="120" spans="1:29" ht="16" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -5203,7 +5284,7 @@
       <c r="AB120" s="12"/>
       <c r="AC120" s="12"/>
     </row>
-    <row r="121" ht="16" customHeight="1">
+    <row r="121" spans="1:29" ht="16" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -5234,7 +5315,7 @@
       <c r="AB121" s="12"/>
       <c r="AC121" s="12"/>
     </row>
-    <row r="122" ht="16" customHeight="1">
+    <row r="122" spans="1:29" ht="16" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -5265,7 +5346,7 @@
       <c r="AB122" s="12"/>
       <c r="AC122" s="12"/>
     </row>
-    <row r="123" ht="16" customHeight="1">
+    <row r="123" spans="1:29" ht="16" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5296,7 +5377,7 @@
       <c r="AB123" s="12"/>
       <c r="AC123" s="12"/>
     </row>
-    <row r="124" ht="16" customHeight="1">
+    <row r="124" spans="1:29" ht="16" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5327,7 +5408,7 @@
       <c r="AB124" s="12"/>
       <c r="AC124" s="12"/>
     </row>
-    <row r="125" ht="16" customHeight="1">
+    <row r="125" spans="1:29" ht="16" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5358,7 +5439,7 @@
       <c r="AB125" s="12"/>
       <c r="AC125" s="12"/>
     </row>
-    <row r="126" ht="16" customHeight="1">
+    <row r="126" spans="1:29" ht="16" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5389,7 +5470,7 @@
       <c r="AB126" s="12"/>
       <c r="AC126" s="12"/>
     </row>
-    <row r="127" ht="16" customHeight="1">
+    <row r="127" spans="1:29" ht="16" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5420,7 +5501,7 @@
       <c r="AB127" s="12"/>
       <c r="AC127" s="12"/>
     </row>
-    <row r="128" ht="16" customHeight="1">
+    <row r="128" spans="1:29" ht="16" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5451,7 +5532,7 @@
       <c r="AB128" s="12"/>
       <c r="AC128" s="12"/>
     </row>
-    <row r="129" ht="16" customHeight="1">
+    <row r="129" spans="1:29" ht="16" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5482,7 +5563,7 @@
       <c r="AB129" s="12"/>
       <c r="AC129" s="12"/>
     </row>
-    <row r="130" ht="16" customHeight="1">
+    <row r="130" spans="1:29" ht="16" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5513,7 +5594,7 @@
       <c r="AB130" s="12"/>
       <c r="AC130" s="12"/>
     </row>
-    <row r="131" ht="16" customHeight="1">
+    <row r="131" spans="1:29" ht="16" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5544,7 +5625,7 @@
       <c r="AB131" s="12"/>
       <c r="AC131" s="12"/>
     </row>
-    <row r="132" ht="16" customHeight="1">
+    <row r="132" spans="1:29" ht="16" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5575,7 +5656,7 @@
       <c r="AB132" s="12"/>
       <c r="AC132" s="12"/>
     </row>
-    <row r="133" ht="16" customHeight="1">
+    <row r="133" spans="1:29" ht="16" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5606,7 +5687,7 @@
       <c r="AB133" s="12"/>
       <c r="AC133" s="12"/>
     </row>
-    <row r="134" ht="16" customHeight="1">
+    <row r="134" spans="1:29" ht="16" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5637,7 +5718,7 @@
       <c r="AB134" s="12"/>
       <c r="AC134" s="12"/>
     </row>
-    <row r="135" ht="16" customHeight="1">
+    <row r="135" spans="1:29" ht="16" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5668,7 +5749,7 @@
       <c r="AB135" s="12"/>
       <c r="AC135" s="12"/>
     </row>
-    <row r="136" ht="16" customHeight="1">
+    <row r="136" spans="1:29" ht="16" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5699,7 +5780,7 @@
       <c r="AB136" s="12"/>
       <c r="AC136" s="12"/>
     </row>
-    <row r="137" ht="16" customHeight="1">
+    <row r="137" spans="1:29" ht="16" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5730,7 +5811,7 @@
       <c r="AB137" s="12"/>
       <c r="AC137" s="12"/>
     </row>
-    <row r="138" ht="16" customHeight="1">
+    <row r="138" spans="1:29" ht="16" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5761,7 +5842,7 @@
       <c r="AB138" s="12"/>
       <c r="AC138" s="12"/>
     </row>
-    <row r="139" ht="16" customHeight="1">
+    <row r="139" spans="1:29" ht="16" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5792,7 +5873,7 @@
       <c r="AB139" s="12"/>
       <c r="AC139" s="12"/>
     </row>
-    <row r="140" ht="16" customHeight="1">
+    <row r="140" spans="1:29" ht="16" customHeight="1">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5823,7 +5904,7 @@
       <c r="AB140" s="12"/>
       <c r="AC140" s="12"/>
     </row>
-    <row r="141" ht="16" customHeight="1">
+    <row r="141" spans="1:29" ht="16" customHeight="1">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5854,7 +5935,7 @@
       <c r="AB141" s="12"/>
       <c r="AC141" s="12"/>
     </row>
-    <row r="142" ht="16" customHeight="1">
+    <row r="142" spans="1:29" ht="16" customHeight="1">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5885,7 +5966,7 @@
       <c r="AB142" s="12"/>
       <c r="AC142" s="12"/>
     </row>
-    <row r="143" ht="16" customHeight="1">
+    <row r="143" spans="1:29" ht="16" customHeight="1">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5916,7 +5997,7 @@
       <c r="AB143" s="12"/>
       <c r="AC143" s="12"/>
     </row>
-    <row r="144" ht="16" customHeight="1">
+    <row r="144" spans="1:29" ht="16" customHeight="1">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5947,7 +6028,7 @@
       <c r="AB144" s="12"/>
       <c r="AC144" s="12"/>
     </row>
-    <row r="145" ht="16" customHeight="1">
+    <row r="145" spans="1:29" ht="16" customHeight="1">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5978,7 +6059,7 @@
       <c r="AB145" s="12"/>
       <c r="AC145" s="12"/>
     </row>
-    <row r="146" ht="16" customHeight="1">
+    <row r="146" spans="1:29" ht="16" customHeight="1">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -6009,7 +6090,7 @@
       <c r="AB146" s="12"/>
       <c r="AC146" s="12"/>
     </row>
-    <row r="147" ht="16" customHeight="1">
+    <row r="147" spans="1:29" ht="16" customHeight="1">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -6040,7 +6121,7 @@
       <c r="AB147" s="12"/>
       <c r="AC147" s="12"/>
     </row>
-    <row r="148" ht="16" customHeight="1">
+    <row r="148" spans="1:29" ht="16" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -6071,7 +6152,7 @@
       <c r="AB148" s="12"/>
       <c r="AC148" s="12"/>
     </row>
-    <row r="149" ht="16" customHeight="1">
+    <row r="149" spans="1:29" ht="16" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -6102,7 +6183,7 @@
       <c r="AB149" s="12"/>
       <c r="AC149" s="12"/>
     </row>
-    <row r="150" ht="16" customHeight="1">
+    <row r="150" spans="1:29" ht="16" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -6133,7 +6214,7 @@
       <c r="AB150" s="12"/>
       <c r="AC150" s="12"/>
     </row>
-    <row r="151" ht="16" customHeight="1">
+    <row r="151" spans="1:29" ht="16" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -6164,7 +6245,7 @@
       <c r="AB151" s="12"/>
       <c r="AC151" s="12"/>
     </row>
-    <row r="152" ht="16" customHeight="1">
+    <row r="152" spans="1:29" ht="16" customHeight="1">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -6195,7 +6276,7 @@
       <c r="AB152" s="12"/>
       <c r="AC152" s="12"/>
     </row>
-    <row r="153" ht="16" customHeight="1">
+    <row r="153" spans="1:29" ht="16" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -6226,7 +6307,7 @@
       <c r="AB153" s="12"/>
       <c r="AC153" s="12"/>
     </row>
-    <row r="154" ht="16" customHeight="1">
+    <row r="154" spans="1:29" ht="16" customHeight="1">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -6257,7 +6338,7 @@
       <c r="AB154" s="12"/>
       <c r="AC154" s="12"/>
     </row>
-    <row r="155" ht="16" customHeight="1">
+    <row r="155" spans="1:29" ht="16" customHeight="1">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -6288,7 +6369,7 @@
       <c r="AB155" s="12"/>
       <c r="AC155" s="12"/>
     </row>
-    <row r="156" ht="16" customHeight="1">
+    <row r="156" spans="1:29" ht="16" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -6319,7 +6400,7 @@
       <c r="AB156" s="12"/>
       <c r="AC156" s="12"/>
     </row>
-    <row r="157" ht="16" customHeight="1">
+    <row r="157" spans="1:29" ht="16" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -6350,7 +6431,7 @@
       <c r="AB157" s="12"/>
       <c r="AC157" s="12"/>
     </row>
-    <row r="158" ht="16" customHeight="1">
+    <row r="158" spans="1:29" ht="16" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -6381,7 +6462,7 @@
       <c r="AB158" s="12"/>
       <c r="AC158" s="12"/>
     </row>
-    <row r="159" ht="16" customHeight="1">
+    <row r="159" spans="1:29" ht="16" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -6412,7 +6493,7 @@
       <c r="AB159" s="12"/>
       <c r="AC159" s="12"/>
     </row>
-    <row r="160" ht="16" customHeight="1">
+    <row r="160" spans="1:29" ht="16" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6443,7 +6524,7 @@
       <c r="AB160" s="12"/>
       <c r="AC160" s="12"/>
     </row>
-    <row r="161" ht="16" customHeight="1">
+    <row r="161" spans="1:29" ht="16" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6474,7 +6555,7 @@
       <c r="AB161" s="12"/>
       <c r="AC161" s="12"/>
     </row>
-    <row r="162" ht="16" customHeight="1">
+    <row r="162" spans="1:29" ht="16" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6505,7 +6586,7 @@
       <c r="AB162" s="12"/>
       <c r="AC162" s="12"/>
     </row>
-    <row r="163" ht="16" customHeight="1">
+    <row r="163" spans="1:29" ht="16" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6536,7 +6617,7 @@
       <c r="AB163" s="12"/>
       <c r="AC163" s="12"/>
     </row>
-    <row r="164" ht="16" customHeight="1">
+    <row r="164" spans="1:29" ht="16" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6567,7 +6648,7 @@
       <c r="AB164" s="12"/>
       <c r="AC164" s="12"/>
     </row>
-    <row r="165" ht="16" customHeight="1">
+    <row r="165" spans="1:29" ht="16" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6598,7 +6679,7 @@
       <c r="AB165" s="12"/>
       <c r="AC165" s="12"/>
     </row>
-    <row r="166" ht="16" customHeight="1">
+    <row r="166" spans="1:29" ht="16" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6629,7 +6710,7 @@
       <c r="AB166" s="12"/>
       <c r="AC166" s="12"/>
     </row>
-    <row r="167" ht="16" customHeight="1">
+    <row r="167" spans="1:29" ht="16" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6660,7 +6741,7 @@
       <c r="AB167" s="12"/>
       <c r="AC167" s="12"/>
     </row>
-    <row r="168" ht="16" customHeight="1">
+    <row r="168" spans="1:29" ht="16" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6691,7 +6772,7 @@
       <c r="AB168" s="12"/>
       <c r="AC168" s="12"/>
     </row>
-    <row r="169" ht="16" customHeight="1">
+    <row r="169" spans="1:29" ht="16" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6722,7 +6803,7 @@
       <c r="AB169" s="12"/>
       <c r="AC169" s="12"/>
     </row>
-    <row r="170" ht="16" customHeight="1">
+    <row r="170" spans="1:29" ht="16" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6753,7 +6834,7 @@
       <c r="AB170" s="12"/>
       <c r="AC170" s="12"/>
     </row>
-    <row r="171" ht="16" customHeight="1">
+    <row r="171" spans="1:29" ht="16" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6784,7 +6865,7 @@
       <c r="AB171" s="12"/>
       <c r="AC171" s="12"/>
     </row>
-    <row r="172" ht="16" customHeight="1">
+    <row r="172" spans="1:29" ht="16" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -6815,7 +6896,7 @@
       <c r="AB172" s="12"/>
       <c r="AC172" s="12"/>
     </row>
-    <row r="173" ht="16" customHeight="1">
+    <row r="173" spans="1:29" ht="16" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -6846,7 +6927,7 @@
       <c r="AB173" s="12"/>
       <c r="AC173" s="12"/>
     </row>
-    <row r="174" ht="16" customHeight="1">
+    <row r="174" spans="1:29" ht="16" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6877,7 +6958,7 @@
       <c r="AB174" s="12"/>
       <c r="AC174" s="12"/>
     </row>
-    <row r="175" ht="16" customHeight="1">
+    <row r="175" spans="1:29" ht="16" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6908,7 +6989,7 @@
       <c r="AB175" s="12"/>
       <c r="AC175" s="12"/>
     </row>
-    <row r="176" ht="16" customHeight="1">
+    <row r="176" spans="1:29" ht="16" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6939,7 +7020,7 @@
       <c r="AB176" s="12"/>
       <c r="AC176" s="12"/>
     </row>
-    <row r="177" ht="16" customHeight="1">
+    <row r="177" spans="1:29" ht="16" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6970,7 +7051,7 @@
       <c r="AB177" s="12"/>
       <c r="AC177" s="12"/>
     </row>
-    <row r="178" ht="16" customHeight="1">
+    <row r="178" spans="1:29" ht="16" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -7001,7 +7082,7 @@
       <c r="AB178" s="12"/>
       <c r="AC178" s="12"/>
     </row>
-    <row r="179" ht="16" customHeight="1">
+    <row r="179" spans="1:29" ht="16" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -7032,7 +7113,7 @@
       <c r="AB179" s="12"/>
       <c r="AC179" s="12"/>
     </row>
-    <row r="180" ht="16" customHeight="1">
+    <row r="180" spans="1:29" ht="16" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -7063,7 +7144,7 @@
       <c r="AB180" s="12"/>
       <c r="AC180" s="12"/>
     </row>
-    <row r="181" ht="16" customHeight="1">
+    <row r="181" spans="1:29" ht="16" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -7094,7 +7175,7 @@
       <c r="AB181" s="12"/>
       <c r="AC181" s="12"/>
     </row>
-    <row r="182" ht="16" customHeight="1">
+    <row r="182" spans="1:29" ht="16" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -7125,7 +7206,7 @@
       <c r="AB182" s="12"/>
       <c r="AC182" s="12"/>
     </row>
-    <row r="183" ht="16" customHeight="1">
+    <row r="183" spans="1:29" ht="16" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -7156,7 +7237,7 @@
       <c r="AB183" s="12"/>
       <c r="AC183" s="12"/>
     </row>
-    <row r="184" ht="16" customHeight="1">
+    <row r="184" spans="1:29" ht="16" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -7187,7 +7268,7 @@
       <c r="AB184" s="12"/>
       <c r="AC184" s="12"/>
     </row>
-    <row r="185" ht="16" customHeight="1">
+    <row r="185" spans="1:29" ht="16" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -7218,7 +7299,7 @@
       <c r="AB185" s="12"/>
       <c r="AC185" s="12"/>
     </row>
-    <row r="186" ht="16" customHeight="1">
+    <row r="186" spans="1:29" ht="16" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -7249,7 +7330,7 @@
       <c r="AB186" s="12"/>
       <c r="AC186" s="12"/>
     </row>
-    <row r="187" ht="16" customHeight="1">
+    <row r="187" spans="1:29" ht="16" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -7280,7 +7361,7 @@
       <c r="AB187" s="12"/>
       <c r="AC187" s="12"/>
     </row>
-    <row r="188" ht="16" customHeight="1">
+    <row r="188" spans="1:29" ht="16" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -7311,7 +7392,7 @@
       <c r="AB188" s="12"/>
       <c r="AC188" s="12"/>
     </row>
-    <row r="189" ht="16" customHeight="1">
+    <row r="189" spans="1:29" ht="16" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -7342,7 +7423,7 @@
       <c r="AB189" s="12"/>
       <c r="AC189" s="12"/>
     </row>
-    <row r="190" ht="16" customHeight="1">
+    <row r="190" spans="1:29" ht="16" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -7373,7 +7454,7 @@
       <c r="AB190" s="12"/>
       <c r="AC190" s="12"/>
     </row>
-    <row r="191" ht="16" customHeight="1">
+    <row r="191" spans="1:29" ht="16" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -7404,7 +7485,7 @@
       <c r="AB191" s="12"/>
       <c r="AC191" s="12"/>
     </row>
-    <row r="192" ht="16" customHeight="1">
+    <row r="192" spans="1:29" ht="16" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -7435,7 +7516,7 @@
       <c r="AB192" s="12"/>
       <c r="AC192" s="12"/>
     </row>
-    <row r="193" ht="16" customHeight="1">
+    <row r="193" spans="1:29" ht="16" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -7466,7 +7547,7 @@
       <c r="AB193" s="12"/>
       <c r="AC193" s="12"/>
     </row>
-    <row r="194" ht="16" customHeight="1">
+    <row r="194" spans="1:29" ht="16" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -7497,7 +7578,7 @@
       <c r="AB194" s="12"/>
       <c r="AC194" s="12"/>
     </row>
-    <row r="195" ht="16" customHeight="1">
+    <row r="195" spans="1:29" ht="16" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -7528,7 +7609,7 @@
       <c r="AB195" s="12"/>
       <c r="AC195" s="12"/>
     </row>
-    <row r="196" ht="16" customHeight="1">
+    <row r="196" spans="1:29" ht="16" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -7561,18 +7642,18 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B196" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"待产期,已出生"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D196" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"男,女,未知"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N196" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"妈妈,爸爸,奶奶,爷爷,外婆,外公,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/static/template/import_baby_zh.xlsx
+++ b/public/static/template/import_baby_zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang.li/Work/UNC/repo/visit-link-admin-web/public/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D33A63-41C6-CA41-BCCC-BEA0492F1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D100FEB-EFCD-5347-ABE0-8E330C529406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="3800" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
 3. 选项：纯母乳喂养,纯奶粉喂养,母乳奶粉混合喂养,已终止母乳/奶粉喂养</t>
   </si>
   <si>
-    <t>1.必填
-2.格式：省/市/区/街道或乡镇</t>
-  </si>
-  <si>
     <t>1.必填</t>
   </si>
   <si>
@@ -181,6 +177,10 @@
   <si>
     <t>1. 必填
 2. 主看护人电话: 5-20数字号码</t>
+  </si>
+  <si>
+    <t>1.必填
+2.请输入省份，城市，区域和街道名</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
@@ -1573,7 +1573,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>30</v>
@@ -1590,27 +1590,27 @@
       <c r="H2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>35</v>
+      <c r="I2" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="P2" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
